--- a/docs/LTA1_C/LTA1_C_31.07.24_output.xlsx
+++ b/docs/LTA1_C/LTA1_C_31.07.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731793036.8155975</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731793039.9844036</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731793036.8155975.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731793039.9844036.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>290.75</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>288.85</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>1.899999999999977</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.65</v>
       </c>
     </row>
@@ -591,95 +613,107 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731793044.5780013</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731793044.5780013.png</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731793044.5780013.png</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>288.83</v>
       </c>
-      <c r="J4" t="n">
-        <v>288.83</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>289.15</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.3199999999999932</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731793047.5331666</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731793049.6815069</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731793047.5331666.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731793049.6815069.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>133.73</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>132.19</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>1.539999999999992</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -687,51 +721,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731793052.4153655</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731793053.8081717</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731793052.4153655.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731793053.8081717.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>133.99</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>133.26</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.7300000000000182</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>0.54</v>
       </c>
     </row>
@@ -739,51 +779,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731793054.5545244</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731793055.2825322</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731793054.5545244.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731793055.2825322.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>134.08</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>133.26</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.8200000000000216</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.61</v>
       </c>
     </row>
@@ -791,51 +837,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731793063.644897</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731793064.8722224</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731793063.644897.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731793064.8722224.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>6809</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>6775</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>34</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -843,95 +895,107 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731793065.5398912</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731793065.5398912.png</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731793065.5398912.png</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>6766</v>
       </c>
-      <c r="J9" t="n">
-        <v>6766</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>6747.5</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-18.5</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.27</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731793072.1751242</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731793074.876281</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731793072.1751242.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731793074.876281.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>514.15</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>510.45</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>3.699999999999989</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.72</v>
       </c>
     </row>
@@ -939,51 +1003,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731793076.1299517</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731793077.311227</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731793076.1299517.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731793077.311227.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>515.45</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>512.15</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>3.300000000000068</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.64</v>
       </c>
     </row>
@@ -991,51 +1061,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731793082.405819</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731793085.9391754</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731793082.405819.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731793085.9391754.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>1048.8</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>1035</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>13.79999999999995</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>1.32</v>
       </c>
     </row>
@@ -1043,51 +1119,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731793096.6903038</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731793098.874966</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/CNY1731793096.6903038.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/CNY1731793098.874966.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>11.971</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>11.946</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.02500000000000036</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -1095,139 +1177,157 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731793099.7218423</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>./test_images/CNY1731793099.7218423.png</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
+          <t>./test_images/CNY1731793099.7218423.png</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>11.922</v>
       </c>
-      <c r="J14" t="n">
-        <v>11.922</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>11.859</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-0.06300000000000061</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-0.53</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731793104.7104332</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731793104.7104332.png</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731793104.7104332.png</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>128.16</v>
       </c>
-      <c r="J15" t="n">
-        <v>128.16</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>129.82</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-1.659999999999997</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-1.3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731793119.6212933</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731793120.6220968</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731793119.6212933.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731793120.6220968.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>164.08</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>165.66</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>1.579999999999984</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.96</v>
       </c>
     </row>
@@ -1235,95 +1335,107 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731793131.208744</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731793131.208744.png</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731793131.208744.png</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>50.82</v>
       </c>
-      <c r="J17" t="n">
-        <v>50.82</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>50.74</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-0.07999999999999829</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731793138.8125718</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731793141.8687434</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731793138.8125718.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731793141.8687434.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>1425.6</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>1417.2</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>8.399999999999864</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0.59</v>
       </c>
     </row>
@@ -1331,51 +1443,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731793142.0528228</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731793143.6757197</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731793142.0528228.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731793143.6757197.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>1417</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>1421.8</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>4.799999999999955</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -1383,95 +1501,107 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731793144.302277</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731793144.302277.png</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731793144.302277.png</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>1414.4</v>
       </c>
-      <c r="J20" t="n">
-        <v>1414.4</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1416.6</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2.199999999999818</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731793150.012758</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731793153.805565</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731793150.012758.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731793153.805565.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>61.3</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>60.63</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.6699999999999946</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>1.09</v>
       </c>
     </row>
@@ -1479,51 +1609,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731793158.2033403</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731793160.972306</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731793158.2033403.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731793160.972306.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>60.55</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>60.95</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.4000000000000057</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.66</v>
       </c>
     </row>
@@ -1531,51 +1667,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731793161.2219944</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731793167.5847058</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/SELG1731793161.2219944.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/SELG1731793167.5847058.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>58.37</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>57.65</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.7199999999999989</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>1.23</v>
       </c>
     </row>
@@ -1583,139 +1725,157 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731793169.7151678</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731793169.7151678.png</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731793169.7151678.png</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>58.38</v>
       </c>
-      <c r="J24" t="n">
-        <v>58.38</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>58.8</v>
+      </c>
+      <c r="M24" t="n">
+        <v>-0.4199999999999946</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-0.72</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731793170.0418265</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731793170.0418265.png</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731793170.0418265.png</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>142.48</v>
       </c>
-      <c r="J25" t="n">
-        <v>142.48</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>143.66</v>
+      </c>
+      <c r="M25" t="n">
+        <v>-1.180000000000007</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-0.83</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731793180.5316305</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731793187.9122694</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731793180.5316305.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731793187.9122694.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>85.34</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>84.98</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0.3599999999999994</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>0.42</v>
       </c>
     </row>
@@ -1723,51 +1883,57 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731793192.338745</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731793198.2741652</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731793192.338745.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731793198.2741652.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>376.74</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>373.44</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>3.300000000000011</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>0.88</v>
       </c>
     </row>
@@ -1775,88 +1941,100 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731793200.684401</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>./test_images/BSPB1731793200.684401.png</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
+          <t>./test_images/BSPB1731793200.684401.png</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>376.47</v>
       </c>
-      <c r="J28" t="n">
-        <v>376.47</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>376.43</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.04000000000002046</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731793203.4217105</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>./test_images/FEES1731793203.4217105.png</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
+          <t>./test_images/FEES1731793203.4217105.png</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>0.09818</v>
       </c>
-      <c r="J29" t="n">
-        <v>0.09818</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>0.09991999999999999</v>
+      </c>
+      <c r="M29" t="n">
+        <v>-0.001739999999999992</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-1.77</v>
       </c>
     </row>
   </sheetData>
@@ -1917,19 +2095,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13.19999999999982</v>
+        <v>15.39999999999964</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>4.399999999999939</v>
+        <v>5.133333333333212</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9299999999999999</v>
+        <v>1.09</v>
       </c>
       <c r="F2" t="n">
-        <v>0.31</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="3">
@@ -1961,19 +2139,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>34</v>
+        <v>15.5</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>17</v>
+        <v>7.75</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5</v>
+        <v>0.23</v>
       </c>
       <c r="F4" t="n">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="5">
@@ -1983,16 +2161,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.300000000000011</v>
+        <v>3.340000000000032</v>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>1.650000000000006</v>
+        <v>1.670000000000016</v>
       </c>
       <c r="E5" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="F5" t="n">
         <v>0.44</v>
@@ -2005,19 +2183,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02500000000000036</v>
+        <v>-0.03800000000000026</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01250000000000018</v>
+        <v>-0.01900000000000013</v>
       </c>
       <c r="E6" t="n">
-        <v>0.21</v>
+        <v>-0.3200000000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="7">
@@ -2027,19 +2205,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7199999999999989</v>
+        <v>0.3000000000000043</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3599999999999994</v>
+        <v>0.1500000000000021</v>
       </c>
       <c r="E7" t="n">
-        <v>1.23</v>
+        <v>0.51</v>
       </c>
       <c r="F7" t="n">
-        <v>0.62</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="8">
@@ -2071,19 +2249,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.899999999999977</v>
+        <v>2.21999999999997</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9499999999999886</v>
+        <v>1.109999999999985</v>
       </c>
       <c r="E9" t="n">
-        <v>0.65</v>
+        <v>0.76</v>
       </c>
       <c r="F9" t="n">
-        <v>0.32</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="10">
@@ -2137,19 +2315,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>-1.180000000000007</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>-1.180000000000007</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>-0.83</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>-0.83</v>
       </c>
     </row>
     <row r="13">
@@ -2203,19 +2381,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>-0.07999999999999829</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>-0.07999999999999829</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>-0.16</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="16">
@@ -2225,19 +2403,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>-1.659999999999997</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>-1.659999999999997</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>-1.3</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>-1.3</v>
       </c>
     </row>
     <row r="17">
@@ -2247,19 +2425,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-0.001739999999999992</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-0.001739999999999992</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-1.77</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-1.77</v>
       </c>
     </row>
     <row r="18">
